--- a/simulation_data/two_step_algorithm/2s_error_level_5_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_5_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.88428113309934</v>
+        <v>91.32342086966146</v>
       </c>
       <c r="D2" t="n">
-        <v>12.76667759403485</v>
+        <v>12.63832681597106</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>87.69175240591568</v>
+        <v>92.09489803600651</v>
       </c>
       <c r="D3" t="n">
-        <v>13.41924378827816</v>
+        <v>12.14167846833903</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.61151811101035</v>
+        <v>92.39283247465188</v>
       </c>
       <c r="D4" t="n">
-        <v>12.5842981920341</v>
+        <v>13.57273965053448</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91.32311117687938</v>
+        <v>89.67033848110657</v>
       </c>
       <c r="D5" t="n">
-        <v>15.19085723325871</v>
+        <v>12.20084921171562</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.24336424168524</v>
+        <v>91.69503259385057</v>
       </c>
       <c r="D6" t="n">
-        <v>10.83117197046446</v>
+        <v>13.08861140978934</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>89.29688641748913</v>
+        <v>87.5548674748929</v>
       </c>
       <c r="D7" t="n">
-        <v>13.39348583321434</v>
+        <v>13.32873905970522</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.13647647678147</v>
+        <v>83.61578211285322</v>
       </c>
       <c r="D8" t="n">
-        <v>13.49274371540224</v>
+        <v>12.90114132594309</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.58698735617043</v>
+        <v>85.13813103655166</v>
       </c>
       <c r="D9" t="n">
-        <v>14.17312307375182</v>
+        <v>14.75210469970822</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.76247001688496</v>
+        <v>81.44395049459496</v>
       </c>
       <c r="D10" t="n">
-        <v>13.43453653907068</v>
+        <v>12.61441782360784</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.7806210295842</v>
+        <v>83.43269453901132</v>
       </c>
       <c r="D11" t="n">
-        <v>12.64209546523163</v>
+        <v>14.87954904863914</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.76193970211065</v>
+        <v>81.76509299263583</v>
       </c>
       <c r="D12" t="n">
-        <v>13.51781483724384</v>
+        <v>12.14176816021213</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>77.91429106500551</v>
+        <v>82.41312193905151</v>
       </c>
       <c r="D13" t="n">
-        <v>13.29620917787306</v>
+        <v>13.66863752698951</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.73099524481812</v>
+        <v>78.28995188683697</v>
       </c>
       <c r="D14" t="n">
-        <v>14.29069811696708</v>
+        <v>13.21796008531802</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.36374978283378</v>
+        <v>80.94170733398471</v>
       </c>
       <c r="D15" t="n">
-        <v>11.95036129604822</v>
+        <v>12.02160519794143</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.44461672114765</v>
+        <v>75.71333577791307</v>
       </c>
       <c r="D16" t="n">
-        <v>14.52693034640865</v>
+        <v>12.47829074462314</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.67528989125474</v>
+        <v>75.30592650721692</v>
       </c>
       <c r="D17" t="n">
-        <v>13.86452580945751</v>
+        <v>13.50528500340461</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.04901915141352</v>
+        <v>73.76052887342652</v>
       </c>
       <c r="D18" t="n">
-        <v>13.67251891400165</v>
+        <v>13.23109793558844</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.65145687548389</v>
+        <v>71.58472684797505</v>
       </c>
       <c r="D19" t="n">
-        <v>15.34595459519011</v>
+        <v>14.05856201408827</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.42800647168905</v>
+        <v>74.92260722209829</v>
       </c>
       <c r="D20" t="n">
-        <v>13.81566751973102</v>
+        <v>12.55105183097514</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.9674780888808</v>
+        <v>69.85643879598928</v>
       </c>
       <c r="D21" t="n">
-        <v>12.90607393961056</v>
+        <v>13.41707908577698</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>74.14123300636592</v>
+        <v>70.99229133406375</v>
       </c>
       <c r="D22" t="n">
-        <v>12.12440467771518</v>
+        <v>14.04934173644068</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.46379485339403</v>
+        <v>69.69530740095816</v>
       </c>
       <c r="D23" t="n">
-        <v>13.27595123436575</v>
+        <v>12.5577841946043</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.30401911962845</v>
+        <v>69.16630667740907</v>
       </c>
       <c r="D24" t="n">
-        <v>14.51750373725123</v>
+        <v>13.0917771305486</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.21190383971287</v>
+        <v>69.15204069409214</v>
       </c>
       <c r="D25" t="n">
-        <v>13.36430061566553</v>
+        <v>12.91355976500069</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.57909667734862</v>
+        <v>67.04564752885922</v>
       </c>
       <c r="D26" t="n">
-        <v>12.65160525410058</v>
+        <v>12.8145552094139</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.03124767781634</v>
+        <v>64.69732160973666</v>
       </c>
       <c r="D27" t="n">
-        <v>14.25308033161278</v>
+        <v>13.24961498499794</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.63414864346279</v>
+        <v>63.7830234926266</v>
       </c>
       <c r="D28" t="n">
-        <v>12.54954459062406</v>
+        <v>13.77927450356789</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.32999819267514</v>
+        <v>62.74903891503432</v>
       </c>
       <c r="D29" t="n">
-        <v>12.19293107717612</v>
+        <v>13.04988797745035</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.20846521081541</v>
+        <v>61.59967757528284</v>
       </c>
       <c r="D30" t="n">
-        <v>12.66370568982851</v>
+        <v>12.75987914644658</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.04652451214916</v>
+        <v>62.53029509688808</v>
       </c>
       <c r="D31" t="n">
-        <v>12.29906712018333</v>
+        <v>15.15376091891957</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.08117136346274</v>
+        <v>62.01041594466098</v>
       </c>
       <c r="D32" t="n">
-        <v>13.47073528431708</v>
+        <v>11.23267945762465</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.99336735230587</v>
+        <v>58.72251307382071</v>
       </c>
       <c r="D33" t="n">
-        <v>13.91101366110877</v>
+        <v>12.30394008903267</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>60.62556893260379</v>
+        <v>59.08538716868061</v>
       </c>
       <c r="D34" t="n">
-        <v>15.9435416171166</v>
+        <v>12.27691543616642</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.1701840639227</v>
+        <v>60.74010025399193</v>
       </c>
       <c r="D35" t="n">
-        <v>12.45463934833964</v>
+        <v>11.85758390432404</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.38727705835176</v>
+        <v>55.27064337842061</v>
       </c>
       <c r="D36" t="n">
-        <v>13.180252878006</v>
+        <v>12.35480314009145</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.7480488077122</v>
+        <v>57.56132917237236</v>
       </c>
       <c r="D37" t="n">
-        <v>13.76471134551403</v>
+        <v>14.69870823994394</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.41281749285044</v>
+        <v>55.12202829497206</v>
       </c>
       <c r="D38" t="n">
-        <v>13.99846230752002</v>
+        <v>12.6973391932482</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.1424792590697</v>
+        <v>51.41294280649082</v>
       </c>
       <c r="D39" t="n">
-        <v>13.10409019396811</v>
+        <v>12.46374159569107</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.96748629676414</v>
+        <v>51.87720271257074</v>
       </c>
       <c r="D40" t="n">
-        <v>13.15794709340928</v>
+        <v>13.20752532251267</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.35500948244947</v>
+        <v>50.3560640033627</v>
       </c>
       <c r="D41" t="n">
-        <v>12.78654029111516</v>
+        <v>12.46809171356981</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.50253096777186</v>
+        <v>48.71520243323545</v>
       </c>
       <c r="D42" t="n">
-        <v>14.93389220679635</v>
+        <v>13.5969539797707</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.88038697049757</v>
+        <v>49.41422921082026</v>
       </c>
       <c r="D43" t="n">
-        <v>13.84104263725552</v>
+        <v>12.32796171460487</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.49799203721462</v>
+        <v>47.88814865925725</v>
       </c>
       <c r="D44" t="n">
-        <v>14.06525733720949</v>
+        <v>13.5509713117165</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>45.80412436073536</v>
+        <v>48.07373845534259</v>
       </c>
       <c r="D45" t="n">
-        <v>12.24726735943173</v>
+        <v>12.88533453116783</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.46997654023774</v>
+        <v>45.04396392156114</v>
       </c>
       <c r="D46" t="n">
-        <v>12.14444201723693</v>
+        <v>13.88289445281767</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>47.02408661068866</v>
+        <v>47.1477629571725</v>
       </c>
       <c r="D47" t="n">
-        <v>13.96484081286191</v>
+        <v>12.0637275700466</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.0839656647867</v>
+        <v>44.2719944590559</v>
       </c>
       <c r="D48" t="n">
-        <v>13.70299007547828</v>
+        <v>11.99667300659722</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.38412212667602</v>
+        <v>42.68611044658422</v>
       </c>
       <c r="D49" t="n">
-        <v>13.29961046563418</v>
+        <v>13.0463183198392</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.57534632633187</v>
+        <v>42.5011843706611</v>
       </c>
       <c r="D50" t="n">
-        <v>13.03210964930573</v>
+        <v>12.1627635543739</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.2055301731999</v>
+        <v>41.23657182212713</v>
       </c>
       <c r="D51" t="n">
-        <v>13.59520436783337</v>
+        <v>12.72063060547307</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.47418695221693</v>
+        <v>39.31331693365377</v>
       </c>
       <c r="D52" t="n">
-        <v>14.004300502366</v>
+        <v>10.66981102555209</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>36.55751474632068</v>
+        <v>40.39224365724066</v>
       </c>
       <c r="D53" t="n">
-        <v>12.80711037318743</v>
+        <v>11.34598611582691</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.76637942187575</v>
+        <v>39.21083904943221</v>
       </c>
       <c r="D54" t="n">
-        <v>12.41990492698903</v>
+        <v>13.56552265254651</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.70873683640686</v>
+        <v>37.56744470791129</v>
       </c>
       <c r="D55" t="n">
-        <v>12.87362348292367</v>
+        <v>12.84301734245681</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.15851656150218</v>
+        <v>37.90441757947946</v>
       </c>
       <c r="D56" t="n">
-        <v>11.14254431652869</v>
+        <v>12.06610803418494</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.30581034728754</v>
+        <v>35.14166928276025</v>
       </c>
       <c r="D57" t="n">
-        <v>12.7363788386603</v>
+        <v>13.21437649732253</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>31.8288272797679</v>
+        <v>33.76739460835504</v>
       </c>
       <c r="D58" t="n">
-        <v>12.23034202430334</v>
+        <v>13.57701017283513</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.74374576491519</v>
+        <v>33.33294207440021</v>
       </c>
       <c r="D59" t="n">
-        <v>14.73154703338299</v>
+        <v>13.0088668737467</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.38781558725186</v>
+        <v>29.87893667289206</v>
       </c>
       <c r="D60" t="n">
-        <v>12.31987320875845</v>
+        <v>12.06973032325788</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.77757806262007</v>
+        <v>31.3777285094033</v>
       </c>
       <c r="D61" t="n">
-        <v>12.89869473592096</v>
+        <v>11.17157540490608</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.10080368999196</v>
+        <v>28.48797037919839</v>
       </c>
       <c r="D62" t="n">
-        <v>12.5906559109499</v>
+        <v>13.87921169324396</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.55155788497656</v>
+        <v>25.83791838181642</v>
       </c>
       <c r="D63" t="n">
-        <v>11.87807432758288</v>
+        <v>13.42363605494693</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.96339588646905</v>
+        <v>27.91104827218117</v>
       </c>
       <c r="D64" t="n">
-        <v>11.25408487049158</v>
+        <v>14.16222230683175</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>24.63975177741883</v>
+        <v>24.4264211977374</v>
       </c>
       <c r="D65" t="n">
-        <v>12.44735935591483</v>
+        <v>11.24878336236069</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.6959887422511</v>
+        <v>26.97214149010181</v>
       </c>
       <c r="D66" t="n">
-        <v>14.68537042943937</v>
+        <v>12.34821998148146</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.40253035690377</v>
+        <v>23.832534127551</v>
       </c>
       <c r="D67" t="n">
-        <v>13.86530668763503</v>
+        <v>13.5549994303056</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.34915595920764</v>
+        <v>25.68504012840966</v>
       </c>
       <c r="D68" t="n">
-        <v>11.03725345120981</v>
+        <v>14.63240061439371</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>20.98076254146288</v>
+        <v>22.27124010435018</v>
       </c>
       <c r="D69" t="n">
-        <v>14.4601589387777</v>
+        <v>12.96139208474384</v>
       </c>
     </row>
   </sheetData>
